--- a/docs/PT2/PT2_05.08.24_output.xlsx
+++ b/docs/PT2/PT2_05.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,3268 +505,3869 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1730820889.076834</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730820891.1494954</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730820889.076834.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730820891.1494954.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>279.04</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278.33</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.7100000000000364</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1730820892.381174</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1730820892.7238405</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730820892.381174.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730820892.7238405.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>277.61</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.43</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1730820893.2329655</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1730820893.4975295</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1730820893.2329655.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1730820893.4975295.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>277.34</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>276.34</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1730820900.003218</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730820900.141369</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1730820900.003218.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1730820900.141369.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>276.89</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>276.34</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.5500000000000114</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1730820905.9809344</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1730820906.0785067</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730820905.9809344.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730820906.0785067.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>127.28</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>127.94</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.6599999999999966</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1730820907.898852</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1730820908.1646187</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730820907.898852.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730820908.1646187.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>128.08</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>128.1</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.01999999999998181</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1730820909.965585</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730820911.0413673</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730820909.965585.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730820911.0413673.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>128.16</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>128.12</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.03999999999999204</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1730820912.8328035</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730820913.333968</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730820912.8328035.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730820913.333968.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>127.66</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>127.48</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.1799999999999926</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1730820918.2798939</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1730820919.4365857</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730820918.2798939.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730820919.4365857.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6367.5</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6435.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-68</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-1.07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1730820919.4531786</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1730820919.8456922</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730820919.4531786.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730820919.8456922.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6435.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6441.5</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>6</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1730820924.3006132</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1730820925.2513819</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730820924.3006132.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730820925.2513819.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6421.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6409</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>12.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1730820926.2589996</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730820927.9244466</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730820926.2589996.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730820927.9244466.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>497.25</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>497.95</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.6999999999999886</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1730820928.6408088</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1730820930.6419513</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730820928.6408088.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730820930.6419513.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>497.35</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>496.2</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-1.150000000000034</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1730820936.875446</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1730820937.0882134</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730820936.875446.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730820937.0882134.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>495.35</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>494.85</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1730820939.0525355</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1730820939.3421085</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730820939.0525355.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730820939.3421085.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>224.41</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>224.2</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.210000000000008</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1730820941.986688</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730820942.673869</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730820941.986688.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730820942.673869.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>223.05</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>222.89</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.160000000000025</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1730820944.6270432</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730820945.6373675</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730820944.6270432.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730820945.6373675.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>225.26</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>225.15</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.1099999999999852</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1730820946.4599292</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1730820946.6717155</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730820946.4599292.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730820946.6717155.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>224.95</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>225.05</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1730820949.3162851</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1730820949.4080298</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730820949.3162851.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730820949.4080298.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>224.08</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>224.05</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1730820949.4617097</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730820949.6725276</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730820949.4617097.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730820949.6725276.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>224.05</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>223.74</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.3100000000000023</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1730820950.4014344</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730820952.3007295</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730820950.4014344.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730820952.3007295.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1008</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1005.6</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-2.399999999999977</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1730820954.3690042</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1730820954.763408</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730820954.3690042.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730820954.763408.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1002</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1002.2</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.2000000000000455</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1730820954.8197134</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1730820956.5744507</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730820954.8197134.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730820956.5744507.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1002.6</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1008.8</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-6.199999999999932</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1730820956.5895963</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1730820958.0568283</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730820956.5895963.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730820958.0568283.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1008.8</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1009</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1730820958.7104342</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1730820959.6469972</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730820958.7104342.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730820959.6469972.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1009.6</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1008.6</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1730820960.7784977</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1730820961.4325376</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730820960.7784977.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730820961.4325376.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1005.8</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1004.6</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>1.199999999999932</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1730820972.1912608</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1730820973.25626</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730820972.1912608.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730820973.25626.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>124.22</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>124.02</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.2000000000000028</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1730820973.2718801</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1730820974.8141322</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730820973.2718801.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730820974.8141322.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>124.02</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>124.24</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.2199999999999989</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1730820974.8307078</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1730820975.0929294</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730820974.8307078.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730820975.0929294.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>124.24</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>124.42</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1730820976.248017</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1730820977.3229249</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730820976.248017.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730820977.3229249.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>124.54</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>124.58</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.03999999999999204</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1730820984.100821</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1730820985.9965055</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730820984.100821.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730820985.9965055.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>160.9</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>159.94</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.960000000000008</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1730820986.0116084</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1730820986.6242878</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730820986.0116084.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730820986.6242878.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>159.94</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>160.24</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.3000000000000114</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1730820987.9749806</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1730820988.9779716</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730820987.9749806.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730820988.9779716.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>160.7</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>161.06</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.3600000000000136</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1730820989.750279</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1730820991.8951979</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730820989.750279.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730820991.8951979.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>161.14</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>160.6</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.539999999999992</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1730820997.4444954</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1730820997.5401175</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730820997.4444954.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730820997.5401175.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>48.75</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>48.715</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.03499999999999659</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1730820997.6762872</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1730820997.772945</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730820997.6762872.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730820997.772945.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>48.715</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>48.665</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.05000000000000426</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1730820998.073628</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1730821000.8985744</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730820998.073628.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730821000.8985744.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>48.705</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>49.17</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.4650000000000034</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.95</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1730821003.4984133</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1730821003.8324594</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730821003.4984133.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730821003.8324594.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>49.065</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>48.915</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.1499999999999986</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1730821006.1735435</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1730821006.4327803</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730821006.1735435.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730821006.4327803.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1384.8</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1383.6</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1730821009.6530206</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1730821009.7496717</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730821009.6530206.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730821009.7496717.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1375.6</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1374.2</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>1.399999999999864</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1730821010.2943258</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1730821010.6448972</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730821010.2943258.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730821010.6448972.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1371.2</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1375</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-3.799999999999955</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1730821013.9591146</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1730821015.6621263</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730821013.9591146.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730821015.6621263.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1380.6</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1379.4</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-1.199999999999818</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1730821020.7393315</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1730821020.9609551</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730821020.7393315.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730821020.9609551.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>59.15</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>59.16</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1730821024.2862313</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1730821024.5519512</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730821024.2862313.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730821024.5519512.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>59.55</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>59.67</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1730821024.815305</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1730821025.7712553</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730821024.815305.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730821025.7712553.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>59.61</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>59.7</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1730821026.0670104</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1730821026.6053166</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730821026.0670104.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730821026.6053166.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>59.65</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>59.66</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1730821031.5248787</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1730821031.622446</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730821031.5248787.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730821031.622446.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>95.97</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>96.15000000000001</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1730821031.879197</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1730821032.0158117</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730821031.879197.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730821032.0158117.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>96.02</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>96.2</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1730821032.2750652</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1730821032.3316991</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730821032.2750652.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730821032.3316991.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>96.09999999999999</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>96.3</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1730821036.353197</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1730821036.4532526</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730821036.353197.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730821036.4532526.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>95.75</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>95.63</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1730821038.703739</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1730821039.6003652</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SELG1730821038.703739.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SELG1730821039.6003652.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>55.81</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>55.7</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1730821042.00407</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1730821045.099699</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SELG1730821042.00407.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SELG1730821045.099699.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>55.73</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>56.15</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.4200000000000017</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.75</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1730821052.6643152</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1730821054.7993524</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730821052.6643152.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730821054.7993524.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>139.16</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>142.2</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-3.039999999999992</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-2.18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1730821054.8149667</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1730821057.004117</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730821054.8149667.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730821057.004117.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>142.2</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>142.44</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1730821057.6371872</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1730821059.0426538</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730821057.6371872.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730821059.0426538.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>142.2</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>141.86</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.339999999999975</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1730821062.5945373</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1730821063.4167478</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730821062.5945373.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730821063.4167478.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>19.936</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>19.875</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.06099999999999994</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1730821064.4766846</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1730821066.4166958</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730821064.4766846.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730821066.4166958.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>19.832</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>19.919</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.08699999999999974</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1730821066.4332604</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1730821067.7177854</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730821066.4332604.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730821067.7177854.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>19.919</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>19.9</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.0190000000000019</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1730821068.8671248</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1730821071.1988194</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730821068.8671248.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730821071.1988194.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>19.944</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>19.814</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.129999999999999</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.65</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1730821071.2144365</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1730821071.4100544</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730821071.2144365.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730821071.4100544.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>19.814</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>19.855</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.04100000000000037</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1730821071.4666584</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1730821071.8066833</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730821071.4666584.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730821071.8066833.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>19.846</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>19.78</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.06599999999999895</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1730821074.8634179</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1730821075.2512226</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730821074.8634179.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730821075.2512226.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>660</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>660.8</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1730821078.822491</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1730821080.0472965</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730821078.822491.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730821080.0472965.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>661.6</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>660.6</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-1</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1730821083.518909</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1730821083.8099914</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730821083.518909.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730821083.8099914.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>658</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>657</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1730821098.1780796</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1730821101.697634</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/FEES1730821098.1780796.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/FEES1730821101.697634.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>0.09552000000000001</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>0.09504000000000001</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.0004799999999999943</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1730821101.7141984</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1730821101.7141984.png</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
+          <t>./test_images/FEES1730821101.7141984.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>0.09504000000000001</v>
       </c>
-      <c r="J68" t="n">
-        <v>0.09504000000000001</v>
-      </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
+        <v>0.09504</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1.387778780781446e-17</v>
+      </c>
+      <c r="N68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3759,335 +4375,398 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1730821106.434133</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1730821106.434133.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1730821106.434133.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>94.83</v>
       </c>
-      <c r="J69" t="n">
-        <v>94.83</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
+      <c r="L69" t="n">
+        <v>94.73</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1730821111.8865151</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1730821113.6381235</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MXI1730821111.8865151.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MXI1730821113.6381235.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>2884.2</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>2902.55</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-18.35000000000036</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.64</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1730821113.6547155</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1730821114.491482</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MXI1730821113.6547155.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MXI1730821114.491482.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>2902.55</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>2904.9</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>2.349999999999909</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1730821115.4339564</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1730821118.7264555</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/MXI1730821115.4339564.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/MXI1730821118.7264555.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>2906.75</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>2895.45</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-11.30000000000018</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1730821118.7430203</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1730821118.9183419</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/MXI1730821118.7430203.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/MXI1730821118.9183419.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>2895.45</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>2894</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>1.449999999999818</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1730821119.5068672</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1730821120.3028066</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730821119.5068672.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730821120.3028066.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>11.893</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>11.888</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.005000000000000782</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1730821122.8051898</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1730821123.540376</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730821122.8051898.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730821123.540376.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>11.905</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>11.923</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.01800000000000068</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -4101,7 +4780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4125,6 +4804,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4138,6 +4832,15 @@
       <c r="C2" t="n">
         <v>6</v>
       </c>
+      <c r="D2" t="n">
+        <v>-0.02500000000000036</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.13</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4151,6 +4854,15 @@
       <c r="C3" t="n">
         <v>6</v>
       </c>
+      <c r="D3" t="n">
+        <v>-1.399999999999996</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -4164,6 +4876,15 @@
       <c r="C4" t="n">
         <v>6</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.116666666666679</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4177,6 +4898,15 @@
       <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0.05750000000000099</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4190,6 +4920,15 @@
       <c r="C6" t="n">
         <v>4</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.1700000000000053</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4203,6 +4942,15 @@
       <c r="C7" t="n">
         <v>4</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.2549999999999955</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4216,6 +4964,15 @@
       <c r="C8" t="n">
         <v>4</v>
       </c>
+      <c r="D8" t="n">
+        <v>-0.3599999999999994</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.9099999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.23</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4229,6 +4986,15 @@
       <c r="C9" t="n">
         <v>4</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.05750000000000099</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4242,6 +5008,15 @@
       <c r="C10" t="n">
         <v>4</v>
       </c>
+      <c r="D10" t="n">
+        <v>-6.462500000000205</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.8999999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.22</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4255,6 +5030,15 @@
       <c r="C11" t="n">
         <v>4</v>
       </c>
+      <c r="D11" t="n">
+        <v>-0.05000000000000071</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4268,6 +5052,15 @@
       <c r="C12" t="n">
         <v>4</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.1250000000000036</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4281,6 +5074,15 @@
       <c r="C13" t="n">
         <v>4</v>
       </c>
+      <c r="D13" t="n">
+        <v>-0.5999999999999659</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4294,6 +5096,15 @@
       <c r="C14" t="n">
         <v>3</v>
       </c>
+      <c r="D14" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.7899999999999998</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.26</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -4307,6 +5118,15 @@
       <c r="C15" t="n">
         <v>3</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.01666666666665151</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4320,6 +5140,15 @@
       <c r="C16" t="n">
         <v>3</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.2666666666666515</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4333,6 +5162,15 @@
       <c r="C17" t="n">
         <v>3</v>
       </c>
+      <c r="D17" t="n">
+        <v>-1.046666666666653</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.75</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4346,6 +5184,15 @@
       <c r="C18" t="n">
         <v>2</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.01150000000000073</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -4354,11 +5201,20 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0004799999999999943</v>
+        <v>-0.0004799999999999804</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
+      <c r="D19" t="n">
+        <v>-0.0002399999999999902</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -4372,6 +5228,15 @@
       <c r="C20" t="n">
         <v>2</v>
       </c>
+      <c r="D20" t="n">
+        <v>-0.1550000000000011</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.28</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4380,11 +5245,20 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.09999999999999432</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4398,6 +5272,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
